--- a/generate_tables_driver.xlsx
+++ b/generate_tables_driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221A6D6-19AE-49D1-A07F-11FD30171677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEBE5CD-3CD0-430C-A034-0080CB79C344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1065" windowWidth="22710" windowHeight="13500" xr2:uid="{1F165666-B735-4F1A-A53E-35CD7732AB2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F165666-B735-4F1A-A53E-35CD7732AB2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>sourcefile</t>
   </si>
@@ -85,13 +87,76 @@
   </si>
   <si>
     <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\Design_results_summary.xlsx</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\00 - 2017 Evaluation\Report\Drafts\2020-05-31\D0 Report Figures and Tables - Design.xlsx</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\00 - 2017 Evaluation\Report\Drafts\2020-05-31\</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2019\Design\GroupD-D11.01-CIAC 2019 Ex Post Evaluation-Design.xlsx</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2019\Design\output</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>ciac2018</t>
+  </si>
+  <si>
+    <t>ciac2019</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\__ - Cross Cutting\Evaluation Tools\gsheet_dowload_driver.xlsx</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\output\addendum</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\GroupD-D11.01-CIAC 2018 Ex Post Evaluation -Design - Addendum_1.xlsx</t>
+  </si>
+  <si>
+    <t>Source Defined</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\output\5-1\GroupD-D11.01-CIAC 2018 Ex Post Evaluation -Design_SumDiff.xlsx</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\output\5-1\qc</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\GroupD-D11.01-CIAC 2018 Ex Post Evaluation -Design - Final_7_31.xlsx</t>
+  </si>
+  <si>
+    <t>Test Ready</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\GroupD-D11.01-CIAC 2018 Ex Post Evaluation -Design_Changes.xlsx</t>
+  </si>
+  <si>
+    <t>Z:\Favorites\CPUC10 (Group D - Custom EM&amp;V)\4 Deliverables\11 - Draft and Final Evaluation Reports\CIAC 2018\Design\GroupD-D11.01-CIAC 2018 Ex Post Evaluation -Design_Changes_gh.xlsx</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>1HGPFgrjXTdHfRNLmcHxxUXobUJ0BEMcT45JuJCJb78g</t>
+  </si>
+  <si>
+    <t>googlesource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +164,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +187,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -135,6 +224,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,91 +541,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB02998-8CF7-468E-9C7B-A9E2E8DDEC0D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -545,25 +647,28 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -574,28 +679,31 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -603,24 +711,27 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
+      <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
@@ -630,13 +741,247 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
